--- a/Heuristic2/gtelarge_cross_encode/final_rank_30_gtelarge_cross_encode.xlsx
+++ b/Heuristic2/gtelarge_cross_encode/final_rank_30_gtelarge_cross_encode.xlsx
@@ -28,88 +28,88 @@
     <t>Bill &amp; Melinda Gates Foundation</t>
   </si>
   <si>
+    <t>Penn State University - Outreach &amp; Engagement</t>
+  </si>
+  <si>
+    <t>Chan Zuckerberg Initiative (CZI)</t>
+  </si>
+  <si>
+    <t>Google for Education</t>
+  </si>
+  <si>
     <t>Y Combinator</t>
   </si>
   <si>
+    <t>National Science Foundation (NSF)</t>
+  </si>
+  <si>
     <t>Reach Capital</t>
   </si>
   <si>
-    <t>Google for Education</t>
-  </si>
-  <si>
     <t>U.S. Dept. of Education (EIR Program)</t>
   </si>
   <si>
-    <t>National Science Foundation (NSF)</t>
+    <t>IES SBIR (ED/IES)</t>
   </si>
   <si>
     <t>500 Global Flagship VC (non-accelerator checks)</t>
   </si>
   <si>
-    <t>IES SBIR (ED/IES)</t>
+    <t>TGR Foundation (Tiger Woods)</t>
+  </si>
+  <si>
+    <t>Duke University - Duke-Durham Neighborhood Partnership</t>
   </si>
   <si>
     <t>500 Global (seed/accelerator)</t>
   </si>
   <si>
-    <t>Buffalo Sabres Foundation</t>
-  </si>
-  <si>
-    <t>TGR Foundation (Tiger Woods)</t>
-  </si>
-  <si>
-    <t>Berkeley SkyDeck Fund (UC Berkeley)</t>
-  </si>
-  <si>
-    <t>Penn State University - Outreach &amp; Engagement</t>
-  </si>
-  <si>
-    <t>Chan Zuckerberg Initiative (CZI)</t>
-  </si>
-  <si>
-    <t>Nashville Predators Foundation</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers Foundation</t>
-  </si>
-  <si>
-    <t>NFL Foundation</t>
-  </si>
-  <si>
-    <t>San Jose Sharks Foundation</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs - Spurs Give</t>
-  </si>
-  <si>
-    <t>Indiana Pacers Foundation</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers Community Foundation</t>
-  </si>
-  <si>
-    <t>Austin FC - 4ATX Foundation</t>
-  </si>
-  <si>
-    <t>Baltimore Ravens Foundation</t>
-  </si>
-  <si>
-    <t>Toronto FC - MLSE Foundation</t>
+    <t>The Ohio State University - Office of Outreach</t>
+  </si>
+  <si>
+    <t>New York Knicks Garden of Dreams Foundation</t>
+  </si>
+  <si>
+    <t>Miami Dolphins Foundation</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers Youth Foundation</t>
+  </si>
+  <si>
+    <t>Seattle Seahawks - Spirit of 12</t>
+  </si>
+  <si>
+    <t>Kansas City Chiefs Foundation</t>
+  </si>
+  <si>
+    <t>Chicago Bears Charities</t>
+  </si>
+  <si>
+    <t>Chicago Cubs Charities</t>
+  </si>
+  <si>
+    <t>Los Angeles Rams Foundation</t>
+  </si>
+  <si>
+    <t>Toronto Maple Leafs - MLSE Foundation</t>
+  </si>
+  <si>
+    <t>FC Dallas Foundation</t>
+  </si>
+  <si>
+    <t>Minnesota Wild Foundation</t>
   </si>
   <si>
     <t>Houston Texans Foundation</t>
   </si>
   <si>
-    <t>Philadelphia Eagles Foundation</t>
-  </si>
-  <si>
-    <t>Oakland Roots SC</t>
-  </si>
-  <si>
     <t>Jacksonville Jaguars Foundation</t>
   </si>
   <si>
-    <t>Florida State University Research Foundation</t>
+    <t>Tampa Bay Lightning Community Heroes</t>
+  </si>
+  <si>
+    <t>Laureus Sport for Good USA</t>
   </si>
 </sst>
 </file>
